--- a/experiment_results/best_case/ExamDB/4wise/0.7_best_case.xlsx
+++ b/experiment_results/best_case/ExamDB/4wise/0.7_best_case.xlsx
@@ -651,7 +651,7 @@
         <v>49</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>251</v>
@@ -875,7 +875,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>251</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>251</v>
@@ -1227,7 +1227,7 @@
         <v>47</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>251</v>
@@ -2328,7 +2328,7 @@
         <v>49</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>251</v>
@@ -2552,7 +2552,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>251</v>
@@ -4229,7 +4229,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>251</v>
@@ -5682,7 +5682,7 @@
         <v>49</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>251</v>
@@ -5906,7 +5906,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>251</v>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>251</v>
@@ -6258,7 +6258,7 @@
         <v>47</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>251</v>
@@ -7583,7 +7583,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>251</v>
